--- a/output/fit_clients/fit_round_386.xlsx
+++ b/output/fit_clients/fit_round_386.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2231953964.245572</v>
+        <v>2110895374.104945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08921331677531427</v>
+        <v>0.07707719724879269</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03475007360243468</v>
+        <v>0.03963726834876893</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1115977008.969172</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2181482666.198311</v>
+        <v>1673647668.61726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1533179789605359</v>
+        <v>0.150994199768491</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04816577254653438</v>
+        <v>0.03606306675918697</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1090741401.272366</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3183284216.150465</v>
+        <v>4703510408.89584</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1513535438353114</v>
+        <v>0.1547761648683222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02453598259835163</v>
+        <v>0.02558533825015975</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>139</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1591642064.410642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3131883754.170564</v>
+        <v>3892228305.755269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0999335766715803</v>
+        <v>0.1085151941531536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04106880738056404</v>
+        <v>0.03671713680147268</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>143</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1565941938.245744</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2194816057.410786</v>
+        <v>2661566653.748833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079497760431376</v>
+        <v>0.1223549238001257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04178875478392746</v>
+        <v>0.0494178787186508</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1097408037.227722</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2151291489.533143</v>
+        <v>2250809767.871296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08649648451382794</v>
+        <v>0.08616718350982164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04881546867110771</v>
+        <v>0.03265295764383273</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1075645791.379065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2676803169.652656</v>
+        <v>2421735561.400189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1697735461124743</v>
+        <v>0.1508464466209593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03099777224900465</v>
+        <v>0.02053925157936934</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1338401609.310066</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1621047096.539036</v>
+        <v>2287521126.65356</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1855173236192396</v>
+        <v>0.1859280045055538</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03127654129562795</v>
+        <v>0.02517914387374334</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>810523627.472858</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3968113138.73715</v>
+        <v>4004477357.165468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1597253886406303</v>
+        <v>0.1347661159386622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03695837429869594</v>
+        <v>0.040601551548919</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>162</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1984056588.779248</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3840465392.100707</v>
+        <v>2952371565.825248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1782874588900678</v>
+        <v>0.1624153380015833</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04004421195214129</v>
+        <v>0.03962150323652397</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>159</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1920232697.597695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2441780427.255867</v>
+        <v>3104321378.670444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1208289330972469</v>
+        <v>0.1354594051169382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04560699808184948</v>
+        <v>0.03846833737983756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1220890180.55136</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3649088344.088583</v>
+        <v>4206685920.324863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09132720983711538</v>
+        <v>0.08102568282174526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02199356191987513</v>
+        <v>0.02406493731282589</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>129</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1824544244.807505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3216120963.998358</v>
+        <v>2493869302.395648</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1583287763730142</v>
+        <v>0.1764282199377011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03640833342231387</v>
+        <v>0.04266362108541181</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1608060500.802138</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1746088461.577416</v>
+        <v>1410147976.424452</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1038294406152015</v>
+        <v>0.09399159960853896</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03885576208909159</v>
+        <v>0.0454290664524046</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873044372.0916928</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2874762038.938661</v>
+        <v>2214221259.209018</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1090759080163159</v>
+        <v>0.08599906260030817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04089442612531538</v>
+        <v>0.03302119920906433</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1437381016.813361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3627952581.79138</v>
+        <v>4464321189.250277</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639375027436887</v>
+        <v>0.1107995258595968</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03635948297940421</v>
+        <v>0.03920120081581556</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1813976343.917536</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2603243656.704128</v>
+        <v>2804767765.740941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1553632514635495</v>
+        <v>0.1314701397278752</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03134015238750076</v>
+        <v>0.02353363906011705</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>127</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1301621887.355371</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163448849.691585</v>
+        <v>1350206826.386677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1373099730470702</v>
+        <v>0.1820205287699402</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01987969413278366</v>
+        <v>0.02717389248065033</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>581724493.8602722</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2492765076.955061</v>
+        <v>2637903858.864748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0973200817443429</v>
+        <v>0.1046928805363643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0217467200484477</v>
+        <v>0.02033145261501201</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1246382512.347668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2604953200.92538</v>
+        <v>2387043505.022942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06713933313030121</v>
+        <v>0.06714481036869206</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03255748401244177</v>
+        <v>0.03691139210789667</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>31</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1302476578.562718</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3093863179.660585</v>
+        <v>3826356345.854009</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1262420535945898</v>
+        <v>0.1160499440329576</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03463368908684444</v>
+        <v>0.04345825156669095</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1546931645.756639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1124707379.085432</v>
+        <v>1268035203.589887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1411840607278001</v>
+        <v>0.1339351842808044</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03587190456074314</v>
+        <v>0.03923404393030337</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>562353738.7305456</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2901112508.733668</v>
+        <v>3311868629.396266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1197148364392547</v>
+        <v>0.1313455681852177</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03702621155064368</v>
+        <v>0.02840076359420619</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>112</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1450556296.273697</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1454609469.492174</v>
+        <v>946559730.7764622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1096024303471749</v>
+        <v>0.08580944339228928</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02172456855739568</v>
+        <v>0.02177348972719808</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>727304694.145997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>955775950.3859694</v>
+        <v>1157405044.313316</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09051329679911208</v>
+        <v>0.1178616756771368</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03362945495633887</v>
+        <v>0.03234819005420202</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>477887936.5158834</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3613538327.373988</v>
+        <v>4279074466.850955</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1291959321122266</v>
+        <v>0.1498449947621731</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02714320240501811</v>
+        <v>0.02027348372217581</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>92</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1806769193.027095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3445542990.620703</v>
+        <v>2836909286.861372</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09897473715298277</v>
+        <v>0.1485876531229826</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04096710693629695</v>
+        <v>0.03550315014301004</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>124</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1722771545.215184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5508166379.098908</v>
+        <v>5648810367.142472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1187573535387711</v>
+        <v>0.1108593319923427</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03437705130230664</v>
+        <v>0.04651532271090773</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>170</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2754083101.917634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1683915371.561099</v>
+        <v>2269474402.743582</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09054559593808861</v>
+        <v>0.08905396177907547</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0394032668051797</v>
+        <v>0.0276682531621546</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>841957687.253196</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1197213627.633635</v>
+        <v>1286994610.554311</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09829935785749622</v>
+        <v>0.101135999663964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03872766036845485</v>
+        <v>0.04433683716152949</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>598606765.9535276</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1647935751.58168</v>
+        <v>1183589085.921335</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08256442205941701</v>
+        <v>0.1070571937624359</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03527133059002057</v>
+        <v>0.02651548415339262</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>823967974.8011127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2427908893.644532</v>
+        <v>2749957245.326448</v>
       </c>
       <c r="F33" t="n">
-        <v>0.186162096635919</v>
+        <v>0.1798946979769199</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04649361263187948</v>
+        <v>0.04537147087226105</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1213954491.205407</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>989905913.4246176</v>
+        <v>960216710.2938516</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09762766284051548</v>
+        <v>0.08061659185200597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02359451539963184</v>
+        <v>0.01954996084885236</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>494952996.2142234</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1055324711.127166</v>
+        <v>890576602.214632</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07976883776094798</v>
+        <v>0.0716379398521933</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03008611680584222</v>
+        <v>0.04063179420311864</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527662362.041054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2519757716.107488</v>
+        <v>2371244117.457099</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1279108170628973</v>
+        <v>0.1792615418601502</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02746596902544712</v>
+        <v>0.02639608744223726</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1259878878.478359</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1921308767.496908</v>
+        <v>2465939609.109388</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1119395387840359</v>
+        <v>0.1041625893479583</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03496755219201002</v>
+        <v>0.02639834928724075</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>960654400.2540712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2072119467.759434</v>
+        <v>1425820932.094187</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09777151758340934</v>
+        <v>0.1060596622336433</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03355360537964663</v>
+        <v>0.02541593292324988</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1036059702.329521</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1803209918.112963</v>
+        <v>1736181560.062996</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1659931740213041</v>
+        <v>0.1190319744499998</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02348347424536157</v>
+        <v>0.02023196706403528</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>901604983.4845663</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1589490560.908353</v>
+        <v>1753479856.345617</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1393499219818964</v>
+        <v>0.1005792260618897</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04419885128624648</v>
+        <v>0.0398357344980638</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>794745224.259697</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2121531284.081863</v>
+        <v>2728824450.633233</v>
       </c>
       <c r="F41" t="n">
-        <v>0.148375688352857</v>
+        <v>0.1444402039686634</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04280131172907212</v>
+        <v>0.03786646514193102</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1060765704.425604</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2751692533.618098</v>
+        <v>2818413233.243872</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1121281713683967</v>
+        <v>0.1241540386360579</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04326935534753441</v>
+        <v>0.0392113567509357</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1375846210.162894</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2002901628.726875</v>
+        <v>2980509494.31621</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1541719032426416</v>
+        <v>0.1392866000468305</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02364243426766191</v>
+        <v>0.02170816759886361</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1001450913.015913</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2184147578.107786</v>
+        <v>1883045030.113064</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09836171392884345</v>
+        <v>0.06579274750094759</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657367073907407</v>
+        <v>0.03451072431913395</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1092073932.15066</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2365774883.356678</v>
+        <v>2344799631.447797</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1194480321712068</v>
+        <v>0.1331440531532312</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05201764665585304</v>
+        <v>0.04263299613673133</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1182887469.402163</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5537472050.383689</v>
+        <v>4743794517.328455</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1743714232114597</v>
+        <v>0.171367312670761</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05939022845164667</v>
+        <v>0.03703550558008498</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>137</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2768736082.751673</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4769510753.235508</v>
+        <v>4140798299.656435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.178281989181047</v>
+        <v>0.150032855616115</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05497207990658871</v>
+        <v>0.04178303726548935</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>103</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2384755419.408276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4541058224.416252</v>
+        <v>3661306350.16807</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108314209209884</v>
+        <v>0.07128723591715717</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02844289047402672</v>
+        <v>0.03721896071003044</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2270529115.171912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1908274150.975379</v>
+        <v>1681197959.310131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1865703939094381</v>
+        <v>0.1326520960675483</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04491662329668522</v>
+        <v>0.02805753599106035</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>954137044.0607157</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2737877801.452358</v>
+        <v>3892577850.536089</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1636757031688917</v>
+        <v>0.1542351906179015</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03555164927039486</v>
+        <v>0.04950423308734045</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>131</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1368938979.203004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1218246405.758497</v>
+        <v>1520416561.261508</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1289176187866962</v>
+        <v>0.1798475548795473</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05219280678123103</v>
+        <v>0.04511571274455555</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>609123251.4943206</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3619068717.542469</v>
+        <v>3341046696.863491</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1272247535090579</v>
+        <v>0.1120427528763558</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0497752696522348</v>
+        <v>0.04341335317238901</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>159</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1809534437.684874</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3246949818.181412</v>
+        <v>3042541614.785982</v>
       </c>
       <c r="F53" t="n">
-        <v>0.168808315503975</v>
+        <v>0.1526853832771714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02821082481853681</v>
+        <v>0.03141442540310928</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1623474924.518184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4550462221.97014</v>
+        <v>3751994033.041506</v>
       </c>
       <c r="F54" t="n">
-        <v>0.136309925253106</v>
+        <v>0.1651773140958116</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0388718503261549</v>
+        <v>0.04077429504704159</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>125</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2275231218.296896</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4012910240.429016</v>
+        <v>3051025160.469693</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1420502205301703</v>
+        <v>0.213243978525093</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02291396069878135</v>
+        <v>0.02445752706855628</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2006455095.695433</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1546039481.957679</v>
+        <v>1483106211.453915</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1565924797579052</v>
+        <v>0.1089632469158192</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04220273606153639</v>
+        <v>0.0506312434598972</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>773019776.4453405</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3041110093.759336</v>
+        <v>3358844616.115683</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1453518996097952</v>
+        <v>0.1167600860154887</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02280905140329945</v>
+        <v>0.0170214830955619</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>122</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1520555054.746859</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1345627934.009526</v>
+        <v>1685571579.471364</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1599749596504531</v>
+        <v>0.1522786203692952</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03231958184415836</v>
+        <v>0.02582826321533451</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>672814012.236055</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4872004075.065338</v>
+        <v>5303412711.100402</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1277744686851471</v>
+        <v>0.1058213959591745</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0400428918377284</v>
+        <v>0.03834069983076684</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2436001971.415596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3114830634.780488</v>
+        <v>2333699820.744757</v>
       </c>
       <c r="F60" t="n">
-        <v>0.135231042752015</v>
+        <v>0.2009667091947298</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03138346410549568</v>
+        <v>0.02414605956144457</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1557415399.796582</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2570079971.431599</v>
+        <v>2053078651.428653</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1187782244954331</v>
+        <v>0.1799413187552198</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02692317542574116</v>
+        <v>0.02664151828592842</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>133</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1285040006.741579</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1499503940.362972</v>
+        <v>1356534666.959481</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1296741322275876</v>
+        <v>0.1860658728606875</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03191899189416525</v>
+        <v>0.04094519495093273</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>749751953.1884094</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4107876094.862586</v>
+        <v>4761766325.779305</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06697417366454479</v>
+        <v>0.09484140630324793</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04729675456858986</v>
+        <v>0.037778380611577</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2053938105.04172</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4201581715.353882</v>
+        <v>3475174370.558535</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1884179011759799</v>
+        <v>0.1291136334245421</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02673988334717604</v>
+        <v>0.02500333425150005</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>120</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2100790907.720907</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3662397554.761039</v>
+        <v>4441520097.623073</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1635876531773209</v>
+        <v>0.1087842566800416</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03031206915779694</v>
+        <v>0.02707587063587399</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>138</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1831198816.11233</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4669565096.235605</v>
+        <v>3939310017.79674</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1458570990117787</v>
+        <v>0.1541717590486965</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03248487618279099</v>
+        <v>0.04398720741422353</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2334782557.623899</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3233545526.805991</v>
+        <v>2867797129.844094</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09174719086898567</v>
+        <v>0.08089104436362414</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03570851950775675</v>
+        <v>0.04250064445130117</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>124</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1616772761.873138</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5847010515.867364</v>
+        <v>5192566295.481024</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1403067329834496</v>
+        <v>0.1561775322043456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04886415715906227</v>
+        <v>0.05029641609642704</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2923505365.664901</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1959615155.962468</v>
+        <v>1923692047.352227</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1586887319446935</v>
+        <v>0.160838233470883</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05348966367743384</v>
+        <v>0.04793656879593744</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>979807577.7146031</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2300135607.163948</v>
+        <v>3704439749.271152</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1027597754756109</v>
+        <v>0.09803642842406493</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0411770311597795</v>
+        <v>0.03000996317706152</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>110</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1150067735.016772</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4040618681.198662</v>
+        <v>3397804328.298017</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664034145601911</v>
+        <v>0.13336456246272</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03130409665783437</v>
+        <v>0.02983464807603708</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>140</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2020309374.671278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1998944163.972209</v>
+        <v>2109117628.143012</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1041616118661197</v>
+        <v>0.1049632354683898</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04024708695934744</v>
+        <v>0.05264190569981118</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>999472028.4861192</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2826154199.168297</v>
+        <v>3418277585.336894</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1117501836171327</v>
+        <v>0.08663801920358455</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03746281107843951</v>
+        <v>0.03399463778677746</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>146</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1413077111.481159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3832583051.454329</v>
+        <v>3064770116.491024</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1549177279541782</v>
+        <v>0.1230762955458394</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02259428041798014</v>
+        <v>0.02755186157591748</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>131</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1916291519.156581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2116794693.589756</v>
+        <v>1773813539.56903</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102563698112977</v>
+        <v>0.1030299527254014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03242307058192621</v>
+        <v>0.03248962355121912</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1058397300.011795</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3729073010.850694</v>
+        <v>4449423692.087244</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09071668087026269</v>
+        <v>0.08216687796973435</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02168849143192052</v>
+        <v>0.02168774916960739</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1864536478.81134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1402889190.335745</v>
+        <v>1741499768.891693</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1709816521379868</v>
+        <v>0.1773975306053719</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02709567710070412</v>
+        <v>0.0224988772072388</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>701444568.5153105</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3366061839.242749</v>
+        <v>3267861789.241821</v>
       </c>
       <c r="F78" t="n">
-        <v>0.111691155970053</v>
+        <v>0.1071144324899205</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04956057979461781</v>
+        <v>0.04598706766966017</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>134</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1683030930.714586</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1302553489.91753</v>
+        <v>1504486717.473829</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1231180291034383</v>
+        <v>0.1149766639344587</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03558468615038124</v>
+        <v>0.0372051528589562</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>651276744.6381167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3936268947.009497</v>
+        <v>3965221231.264568</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08598624462488039</v>
+        <v>0.07631270101772548</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03753113017296134</v>
+        <v>0.02520624855601864</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1968134469.832551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3461714731.652348</v>
+        <v>4512045158.349021</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09046023048945705</v>
+        <v>0.1242615685287487</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03100222536168916</v>
+        <v>0.0316588760858972</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1730857309.049216</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4157387726.876314</v>
+        <v>4144050077.874725</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1891750282946641</v>
+        <v>0.147600415453715</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02150198913676315</v>
+        <v>0.02084333564337411</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2078693894.422281</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1961485923.642795</v>
+        <v>2260932361.431684</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1109939903793842</v>
+        <v>0.1178392712490636</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04063824962990246</v>
+        <v>0.0274184944359956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>980742942.3704456</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2353253091.529602</v>
+        <v>2551085622.811126</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07378678594169237</v>
+        <v>0.09199204188998375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05066193075178614</v>
+        <v>0.03405934768383936</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1176626499.038828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2802646438.04634</v>
+        <v>2683695512.332268</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1285348065008522</v>
+        <v>0.1192554821330662</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04327799827169622</v>
+        <v>0.05060690698972355</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>145</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1401323257.387728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2610585549.907682</v>
+        <v>2601782885.078814</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1313209530388106</v>
+        <v>0.1544504390918815</v>
       </c>
       <c r="G86" t="n">
-        <v>0.021471796623922</v>
+        <v>0.02221029421044264</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1305292887.504929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1318362235.052979</v>
+        <v>1048011642.142626</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1514110973067624</v>
+        <v>0.1198140999853193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03803631606528464</v>
+        <v>0.03965513386994857</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>659181203.4512588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2335241377.55077</v>
+        <v>3127745598.421292</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1207980098809725</v>
+        <v>0.1328947537405339</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03690265280046333</v>
+        <v>0.03811541013918807</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>152</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1167620653.530888</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3002645336.965907</v>
+        <v>3041521589.295964</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1292316614190092</v>
+        <v>0.1030522888462211</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03415213353252722</v>
+        <v>0.03586603413888983</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1501322706.400844</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1552062107.668242</v>
+        <v>1757359220.376896</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1096946432921325</v>
+        <v>0.09310922525084522</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04982614735309393</v>
+        <v>0.05393412989646424</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>776031042.1388897</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1524032501.642684</v>
+        <v>1943258818.76207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.145937845416808</v>
+        <v>0.1645794946124315</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03871250300376355</v>
+        <v>0.0409555598490317</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>762016286.5705364</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2228930640.121374</v>
+        <v>2145375508.453599</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1097045775694828</v>
+        <v>0.07368122610136948</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0410518611187039</v>
+        <v>0.03616687458649182</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1114465283.536707</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4380374758.218604</v>
+        <v>4099039798.370679</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09726698474293796</v>
+        <v>0.1081378799271667</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03975633653491909</v>
+        <v>0.05493999532291565</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>115</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2190187355.122869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2240883162.076957</v>
+        <v>2424354699.086888</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1664459003073369</v>
+        <v>0.1609647495172634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03405126534757249</v>
+        <v>0.04164285020320731</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1120441610.743256</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2206236991.594048</v>
+        <v>2535226285.219991</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121751914895595</v>
+        <v>0.0861261114003677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05221614077631079</v>
+        <v>0.03769008402213622</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1103118553.255047</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2010839517.607006</v>
+        <v>1547176532.992523</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1198013400510956</v>
+        <v>0.1043580002807689</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04516676399076285</v>
+        <v>0.04640005959115317</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1005419744.640335</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4735697584.583892</v>
+        <v>5211888586.448981</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1596699772620856</v>
+        <v>0.1589665795668925</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02308521835924936</v>
+        <v>0.02243667507221508</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2367848907.842897</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2956325586.322645</v>
+        <v>2569826208.399096</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1085929876386337</v>
+        <v>0.120880649885387</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02478259373512574</v>
+        <v>0.03149659881210085</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>102</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1478162774.912363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2831824005.394529</v>
+        <v>2408076487.003266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1287578576092544</v>
+        <v>0.1108359811764879</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02481158726723155</v>
+        <v>0.02431520980930937</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1415911976.483059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3299151000.042779</v>
+        <v>3802522042.922359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1519706690512041</v>
+        <v>0.171611464163539</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02161840607152987</v>
+        <v>0.02418871684867559</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>118</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1649575514.7641</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3070021998.085628</v>
+        <v>2420281805.320704</v>
       </c>
       <c r="F101" t="n">
-        <v>0.195889898289775</v>
+        <v>0.1494216082126953</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03632931128172072</v>
+        <v>0.04130229155777376</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>157</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1535011097.409058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_386.xlsx
+++ b/output/fit_clients/fit_round_386.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2110895374.104945</v>
+        <v>2090785614.092689</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07707719724879269</v>
+        <v>0.07560593290012449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03963726834876893</v>
+        <v>0.03976977042398826</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1673647668.61726</v>
+        <v>2038898464.274405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.150994199768491</v>
+        <v>0.1254097977959572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03606306675918697</v>
+        <v>0.03115926977601553</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4703510408.89584</v>
+        <v>4278171541.528989</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547761648683222</v>
+        <v>0.1287710323082693</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02558533825015975</v>
+        <v>0.02572958286730335</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3892228305.755269</v>
+        <v>4200383170.259344</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1085151941531536</v>
+        <v>0.08214130124891436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03671713680147268</v>
+        <v>0.04053236897707007</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2661566653.748833</v>
+        <v>2101793974.399768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1223549238001257</v>
+        <v>0.1073258681996878</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0494178787186508</v>
+        <v>0.04415130611685673</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2250809767.871296</v>
+        <v>2752995036.167454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08616718350982164</v>
+        <v>0.0731626267932383</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03265295764383273</v>
+        <v>0.04710170042541606</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2421735561.400189</v>
+        <v>3135699668.797131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1508464466209593</v>
+        <v>0.1488818538885851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02053925157936934</v>
+        <v>0.02133801130965083</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2287521126.65356</v>
+        <v>2000304020.690847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1859280045055538</v>
+        <v>0.1658497827579187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02517914387374334</v>
+        <v>0.03267689782103469</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4004477357.165468</v>
+        <v>4606832070.410481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1347661159386622</v>
+        <v>0.1487585780098138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.040601551548919</v>
+        <v>0.03928598368137984</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2952371565.825248</v>
+        <v>2723054617.525304</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1624153380015833</v>
+        <v>0.1339304859991768</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03962150323652397</v>
+        <v>0.04470215483627482</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3104321378.670444</v>
+        <v>2296775254.97223</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1354594051169382</v>
+        <v>0.1462959221144975</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03846833737983756</v>
+        <v>0.03891388222533235</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4206685920.324863</v>
+        <v>3974960764.545019</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08102568282174526</v>
+        <v>0.06939890912735024</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02406493731282589</v>
+        <v>0.027150279099964</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2493869302.395648</v>
+        <v>3238979218.556643</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1764282199377011</v>
+        <v>0.1697418369966474</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04266362108541181</v>
+        <v>0.03981454415321873</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1410147976.424452</v>
+        <v>1407537217.215945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09399159960853896</v>
+        <v>0.0749625985388251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0454290664524046</v>
+        <v>0.03281293227456697</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2214221259.209018</v>
+        <v>2815451115.838965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08599906260030817</v>
+        <v>0.1099395834227891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03302119920906433</v>
+        <v>0.04305711009215457</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4464321189.250277</v>
+        <v>3996822737.347705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1107995258595968</v>
+        <v>0.1424325797878631</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03920120081581556</v>
+        <v>0.04415792868165948</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2804767765.740941</v>
+        <v>3631020582.849798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1314701397278752</v>
+        <v>0.180102415966938</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02353363906011705</v>
+        <v>0.02625174827520839</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1350206826.386677</v>
+        <v>1217465607.425452</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1820205287699402</v>
+        <v>0.1797883878162198</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02717389248065033</v>
+        <v>0.01904492493319277</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2637903858.864748</v>
+        <v>2670401414.963993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1046928805363643</v>
+        <v>0.1066665849537428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02033145261501201</v>
+        <v>0.02345327314928902</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2387043505.022942</v>
+        <v>1994591429.476104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06714481036869206</v>
+        <v>0.1004967875110934</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03691139210789667</v>
+        <v>0.04340561954955605</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3826356345.854009</v>
+        <v>3635105205.972732</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1160499440329576</v>
+        <v>0.1220391128351817</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04345825156669095</v>
+        <v>0.05231204183862977</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1268035203.589887</v>
+        <v>1148771051.022495</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339351842808044</v>
+        <v>0.1320465356952484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03923404393030337</v>
+        <v>0.04272155130461588</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3311868629.396266</v>
+        <v>2802703100.083621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1313455681852177</v>
+        <v>0.1348062256866907</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02840076359420619</v>
+        <v>0.02751713999117334</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>946559730.7764622</v>
+        <v>912270835.5895371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08580944339228928</v>
+        <v>0.1056461040042114</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02177348972719808</v>
+        <v>0.02421482441868163</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1157405044.313316</v>
+        <v>1035319015.685694</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1178616756771368</v>
+        <v>0.1021332837449486</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03234819005420202</v>
+        <v>0.03703733092018689</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4279074466.850955</v>
+        <v>2934375853.011261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1498449947621731</v>
+        <v>0.1409412707083258</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02027348372217581</v>
+        <v>0.01810094076077147</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2836909286.861372</v>
+        <v>3132967664.265172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1485876531229826</v>
+        <v>0.1477196937436055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03550315014301004</v>
+        <v>0.03373700604868305</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5648810367.142472</v>
+        <v>4106958367.25003</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1108593319923427</v>
+        <v>0.1173056702665917</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04651532271090773</v>
+        <v>0.04449232059474209</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2269474402.743582</v>
+        <v>2412330390.905614</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08905396177907547</v>
+        <v>0.11829620734962</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0276682531621546</v>
+        <v>0.03551346150803191</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1286994610.554311</v>
+        <v>1010221947.957681</v>
       </c>
       <c r="F31" t="n">
-        <v>0.101135999663964</v>
+        <v>0.106640979224816</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04433683716152949</v>
+        <v>0.0485520355828931</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1183589085.921335</v>
+        <v>1533954878.939425</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1070571937624359</v>
+        <v>0.09676365795039328</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02651548415339262</v>
+        <v>0.03354597009977385</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2749957245.326448</v>
+        <v>2152886537.379828</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1798946979769199</v>
+        <v>0.1595483439915805</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04537147087226105</v>
+        <v>0.05107122430693744</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>960216710.2938516</v>
+        <v>1308492164.11728</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08061659185200597</v>
+        <v>0.1206053085143968</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01954996084885236</v>
+        <v>0.02278277824312974</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>890576602.214632</v>
+        <v>943757584.9835075</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0716379398521933</v>
+        <v>0.1177826458170406</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04063179420311864</v>
+        <v>0.03863085161160898</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2371244117.457099</v>
+        <v>3180724857.697747</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792615418601502</v>
+        <v>0.1256526945875779</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02639608744223726</v>
+        <v>0.02272563359683698</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2465939609.109388</v>
+        <v>2174247820.358394</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041625893479583</v>
+        <v>0.107935484111214</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02639834928724075</v>
+        <v>0.0310259317154329</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1425820932.094187</v>
+        <v>1642850036.250339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1060596622336433</v>
+        <v>0.1057144881783541</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02541593292324988</v>
+        <v>0.03980598322455533</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1736181560.062996</v>
+        <v>1521584079.893009</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1190319744499998</v>
+        <v>0.1254749332708951</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02023196706403528</v>
+        <v>0.02195795958432875</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1753479856.345617</v>
+        <v>1563294628.019767</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1005792260618897</v>
+        <v>0.1097153443172868</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0398357344980638</v>
+        <v>0.04573909378394692</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2728824450.633233</v>
+        <v>2794438332.610918</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1444402039686634</v>
+        <v>0.1586526628438433</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03786646514193102</v>
+        <v>0.04106054242548885</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2818413233.243872</v>
+        <v>3725035350.561109</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1241540386360579</v>
+        <v>0.09583220590739784</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0392113567509357</v>
+        <v>0.04245486610980043</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2980509494.31621</v>
+        <v>2550673583.156901</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1392866000468305</v>
+        <v>0.1814176903354255</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02170816759886361</v>
+        <v>0.02372880680348661</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1883045030.113064</v>
+        <v>2160423403.17977</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06579274750094759</v>
+        <v>0.0684331743278004</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03451072431913395</v>
+        <v>0.02887129044475088</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2344799631.447797</v>
+        <v>2098054024.975652</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1331440531532312</v>
+        <v>0.144710568563707</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04263299613673133</v>
+        <v>0.04988613991825702</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4743794517.328455</v>
+        <v>4030301622.766819</v>
       </c>
       <c r="F46" t="n">
-        <v>0.171367312670761</v>
+        <v>0.1325875929661389</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03703550558008498</v>
+        <v>0.04191717636424901</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4140798299.656435</v>
+        <v>3810191985.549745</v>
       </c>
       <c r="F47" t="n">
-        <v>0.150032855616115</v>
+        <v>0.1596977838160666</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04178303726548935</v>
+        <v>0.05712688001134087</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3661306350.16807</v>
+        <v>4665936206.530926</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07128723591715717</v>
+        <v>0.08528406019806418</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03721896071003044</v>
+        <v>0.02747489332042577</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1681197959.310131</v>
+        <v>1875202439.608204</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1326520960675483</v>
+        <v>0.1575541465835155</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02805753599106035</v>
+        <v>0.0323931680472474</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3892577850.536089</v>
+        <v>2714128129.313772</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1542351906179015</v>
+        <v>0.1190566952500554</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04950423308734045</v>
+        <v>0.03494937786109893</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1520416561.261508</v>
+        <v>932287337.4340768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1798475548795473</v>
+        <v>0.1337667462496843</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04511571274455555</v>
+        <v>0.05440898618484215</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3341046696.863491</v>
+        <v>4372095424.452024</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1120427528763558</v>
+        <v>0.106206832757627</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04341335317238901</v>
+        <v>0.0471264000159848</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3042541614.785982</v>
+        <v>2660935668.107672</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1526853832771714</v>
+        <v>0.1449660245404724</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03141442540310928</v>
+        <v>0.03459982467896433</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3751994033.041506</v>
+        <v>3213866648.085557</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1651773140958116</v>
+        <v>0.1370156196968778</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04077429504704159</v>
+        <v>0.03755810808611085</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3051025160.469693</v>
+        <v>3010374099.246953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.213243978525093</v>
+        <v>0.2227265058866624</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02445752706855628</v>
+        <v>0.02220408822411554</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1483106211.453915</v>
+        <v>1673515313.716065</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1089632469158192</v>
+        <v>0.1302051423497196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0506312434598972</v>
+        <v>0.050675846453883</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3358844616.115683</v>
+        <v>3432536655.104606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1167600860154887</v>
+        <v>0.1361967685194604</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0170214830955619</v>
+        <v>0.01812474940277324</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1685571579.471364</v>
+        <v>1645500462.081723</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1522786203692952</v>
+        <v>0.1607565923745662</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02582826321533451</v>
+        <v>0.02498638758877711</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5303412711.100402</v>
+        <v>3882950265.703465</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058213959591745</v>
+        <v>0.07935217162136186</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03834069983076684</v>
+        <v>0.03779885700171256</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2333699820.744757</v>
+        <v>3740106310.689402</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2009667091947298</v>
+        <v>0.1888899492549898</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02414605956144457</v>
+        <v>0.02202340986964767</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2053078651.428653</v>
+        <v>2754673363.751726</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1799413187552198</v>
+        <v>0.1657013870055269</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02664151828592842</v>
+        <v>0.02302756890157386</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1356534666.959481</v>
+        <v>1537147725.977576</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1860658728606875</v>
+        <v>0.1531803495244022</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04094519495093273</v>
+        <v>0.04808240462463905</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4761766325.779305</v>
+        <v>4491465258.153748</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09484140630324793</v>
+        <v>0.09100295650488797</v>
       </c>
       <c r="G63" t="n">
-        <v>0.037778380611577</v>
+        <v>0.03251424561687794</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3475174370.558535</v>
+        <v>4256587313.56078</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1291136334245421</v>
+        <v>0.1192893916533424</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02500333425150005</v>
+        <v>0.03101142087243914</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4441520097.623073</v>
+        <v>4512420585.663139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1087842566800416</v>
+        <v>0.1696524768822172</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02707587063587399</v>
+        <v>0.02256061325461474</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3939310017.79674</v>
+        <v>3971069359.497192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1541717590486965</v>
+        <v>0.1567018870181024</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04398720741422353</v>
+        <v>0.04651514028997766</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2867797129.844094</v>
+        <v>3016741369.971581</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08089104436362414</v>
+        <v>0.08472301283447288</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04250064445130117</v>
+        <v>0.04248475007301025</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5192566295.481024</v>
+        <v>4077740768.389945</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1561775322043456</v>
+        <v>0.1417455921422465</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05029641609642704</v>
+        <v>0.05078018931438604</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1923692047.352227</v>
+        <v>1992591747.106833</v>
       </c>
       <c r="F69" t="n">
-        <v>0.160838233470883</v>
+        <v>0.1119053743487643</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04793656879593744</v>
+        <v>0.04067212103977893</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3704439749.271152</v>
+        <v>2528203714.536546</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09803642842406493</v>
+        <v>0.07963125470582187</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03000996317706152</v>
+        <v>0.03995992600150327</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3397804328.298017</v>
+        <v>3851812339.446999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.13336456246272</v>
+        <v>0.1628373981450979</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02983464807603708</v>
+        <v>0.02238751019760741</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2109117628.143012</v>
+        <v>1710176831.422703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1049632354683898</v>
+        <v>0.07602187328295659</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05264190569981118</v>
+        <v>0.03289079275350618</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3418277585.336894</v>
+        <v>3321053081.85442</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08663801920358455</v>
+        <v>0.07083723404175855</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03399463778677746</v>
+        <v>0.04375396482029576</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3064770116.491024</v>
+        <v>2880644924.794805</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1230762955458394</v>
+        <v>0.1673346867596163</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02755186157591748</v>
+        <v>0.0238345986805997</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1773813539.56903</v>
+        <v>2195025739.137534</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1030299527254014</v>
+        <v>0.1298174987210245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03248962355121912</v>
+        <v>0.02479673831650131</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4449423692.087244</v>
+        <v>4642846101.35389</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08216687796973435</v>
+        <v>0.07665904710501788</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02168774916960739</v>
+        <v>0.02558865406201553</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1741499768.891693</v>
+        <v>1996628316.007424</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1773975306053719</v>
+        <v>0.1181976406149881</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0224988772072388</v>
+        <v>0.02944799349957724</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3267861789.241821</v>
+        <v>2976782386.18669</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1071144324899205</v>
+        <v>0.1191755080434583</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04598706766966017</v>
+        <v>0.0458578827527821</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1504486717.473829</v>
+        <v>1573929176.488796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1149766639344587</v>
+        <v>0.1395943873743874</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0372051528589562</v>
+        <v>0.02685438267550772</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3965221231.264568</v>
+        <v>4218455807.883534</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07631270101772548</v>
+        <v>0.08843343103640808</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02520624855601864</v>
+        <v>0.0240687313441224</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4512045158.349021</v>
+        <v>5086278783.810132</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1242615685287487</v>
+        <v>0.09584263028486746</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0316588760858972</v>
+        <v>0.02004633455955904</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4144050077.874725</v>
+        <v>5346836925.835488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.147600415453715</v>
+        <v>0.1459069302387276</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02084333564337411</v>
+        <v>0.02880658334860427</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2260932361.431684</v>
+        <v>1821270546.636331</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1178392712490636</v>
+        <v>0.1014728906589867</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0274184944359956</v>
+        <v>0.03442501328721167</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2551085622.811126</v>
+        <v>1767985769.029676</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09199204188998375</v>
+        <v>0.1197420960737797</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03405934768383936</v>
+        <v>0.04015445558638528</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2683695512.332268</v>
+        <v>2972957108.558222</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1192554821330662</v>
+        <v>0.1616443538670986</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05060690698972355</v>
+        <v>0.05162773185411265</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2601782885.078814</v>
+        <v>2618287881.059364</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1544504390918815</v>
+        <v>0.1620264354622524</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02221029421044264</v>
+        <v>0.01948091445041373</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1048011642.142626</v>
+        <v>1373383636.35498</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1198140999853193</v>
+        <v>0.1232629786167648</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03965513386994857</v>
+        <v>0.03677712532807454</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3127745598.421292</v>
+        <v>3600149269.864413</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1328947537405339</v>
+        <v>0.1733599655138552</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03811541013918807</v>
+        <v>0.02720430230253121</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3041521589.295964</v>
+        <v>2602861606.329318</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1030522888462211</v>
+        <v>0.1467655052310531</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03586603413888983</v>
+        <v>0.02956689168984938</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1757359220.376896</v>
+        <v>1325948299.118492</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09310922525084522</v>
+        <v>0.084386924810956</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05393412989646424</v>
+        <v>0.03561829474920237</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1943258818.76207</v>
+        <v>1327311790.578062</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1645794946124315</v>
+        <v>0.126459624886427</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0409555598490317</v>
+        <v>0.0435962286996418</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2145375508.453599</v>
+        <v>2225323382.548666</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07368122610136948</v>
+        <v>0.09423311405085057</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03616687458649182</v>
+        <v>0.03243583781794587</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4099039798.370679</v>
+        <v>3955627874.53057</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1081378799271667</v>
+        <v>0.09359911429034153</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05493999532291565</v>
+        <v>0.04207513524242724</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2424354699.086888</v>
+        <v>2392384591.595284</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1609647495172634</v>
+        <v>0.1067759659092797</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04164285020320731</v>
+        <v>0.02761417702898022</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2535226285.219991</v>
+        <v>2542580524.772296</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0861261114003677</v>
+        <v>0.1131702567462638</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03769008402213622</v>
+        <v>0.04639579989766122</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1547176532.992523</v>
+        <v>1856351827.519819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1043580002807689</v>
+        <v>0.1114377967800845</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04640005959115317</v>
+        <v>0.03540917540062805</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5211888586.448981</v>
+        <v>3525041612.840579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1589665795668925</v>
+        <v>0.1497335417165788</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02243667507221508</v>
+        <v>0.0275729976841543</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2569826208.399096</v>
+        <v>2584445139.3779</v>
       </c>
       <c r="F98" t="n">
-        <v>0.120880649885387</v>
+        <v>0.07912729509410583</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03149659881210085</v>
+        <v>0.02858666519998405</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2408076487.003266</v>
+        <v>3252701162.241358</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1108359811764879</v>
+        <v>0.13476072100517</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02431520980930937</v>
+        <v>0.0289744264783928</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3802522042.922359</v>
+        <v>3915984542.412607</v>
       </c>
       <c r="F100" t="n">
-        <v>0.171611464163539</v>
+        <v>0.1621102977230217</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02418871684867559</v>
+        <v>0.02224727308633169</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2420281805.320704</v>
+        <v>2981180678.777775</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1494216082126953</v>
+        <v>0.1369744232805856</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04130229155777376</v>
+        <v>0.0498334816081615</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_386.xlsx
+++ b/output/fit_clients/fit_round_386.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2090785614.092689</v>
+        <v>2489279557.839998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07560593290012449</v>
+        <v>0.08327969259400633</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03976977042398826</v>
+        <v>0.03000047522446149</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2038898464.274405</v>
+        <v>1624467406.65824</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1254097977959572</v>
+        <v>0.1237575849837608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03115926977601553</v>
+        <v>0.03861984858618804</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4278171541.528989</v>
+        <v>3297064040.206346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1287710323082693</v>
+        <v>0.1503709447171871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02572958286730335</v>
+        <v>0.0260700314531148</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>384</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4200383170.259344</v>
+        <v>3595448101.29458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08214130124891436</v>
+        <v>0.1062382923912836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04053236897707007</v>
+        <v>0.04789690145904305</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>156</v>
+      </c>
+      <c r="J5" t="n">
+        <v>386</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.81069982127846</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2101793974.399768</v>
+        <v>2599425802.085582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1073258681996878</v>
+        <v>0.1200197247083445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04415130611685673</v>
+        <v>0.0477863085150637</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2752995036.167454</v>
+        <v>2229752138.476535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0731626267932383</v>
+        <v>0.08921015095475091</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04710170042541606</v>
+        <v>0.04359681568380463</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3135699668.797131</v>
+        <v>3415618928.585671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1488818538885851</v>
+        <v>0.1349118946202718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02133801130965083</v>
+        <v>0.02561188146857744</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>104</v>
+      </c>
+      <c r="J8" t="n">
+        <v>386</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2000304020.690847</v>
+        <v>1973623067.105669</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1658497827579187</v>
+        <v>0.1318562797736183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03267689782103469</v>
+        <v>0.02631195503412641</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4606832070.410481</v>
+        <v>4204626008.452818</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1487585780098138</v>
+        <v>0.153949223141959</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03928598368137984</v>
+        <v>0.05182184037012771</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>315</v>
+      </c>
+      <c r="J10" t="n">
+        <v>386</v>
+      </c>
+      <c r="K10" t="n">
+        <v>54.46633348124919</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2723054617.525304</v>
+        <v>2878815991.700779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1339304859991768</v>
+        <v>0.1240465336394837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04470215483627482</v>
+        <v>0.04945662729092982</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>384</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2296775254.97223</v>
+        <v>2353695858.92584</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462959221144975</v>
+        <v>0.1869684294673576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03891388222533235</v>
+        <v>0.04597210318418953</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3974960764.545019</v>
+        <v>3589830085.326118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06939890912735024</v>
+        <v>0.09024786038302302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.027150279099964</v>
+        <v>0.02795881430879507</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>201</v>
+      </c>
+      <c r="J13" t="n">
+        <v>385</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45.74513207187395</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3238979218.556643</v>
+        <v>3852966761.500353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1697418369966474</v>
+        <v>0.1526721133137122</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03981454415321873</v>
+        <v>0.04239994606109873</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>386</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1407537217.215945</v>
+        <v>1837038327.634073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0749625985388251</v>
+        <v>0.07019097264114189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03281293227456697</v>
+        <v>0.04398037779915293</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2815451115.838965</v>
+        <v>2882218965.584625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1099395834227891</v>
+        <v>0.09278979526878767</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04305711009215457</v>
+        <v>0.04653479770381269</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3996822737.347705</v>
+        <v>4717273991.755121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1424325797878631</v>
+        <v>0.1650461827861496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04415792868165948</v>
+        <v>0.04293067876970988</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>184</v>
+      </c>
+      <c r="J17" t="n">
+        <v>386</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3631020582.849798</v>
+        <v>2852227061.502501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.180102415966938</v>
+        <v>0.1761764998892863</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02625174827520839</v>
+        <v>0.0320104605455634</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1217465607.425452</v>
+        <v>1212578603.522568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1797883878162198</v>
+        <v>0.1755954763524957</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01904492493319277</v>
+        <v>0.01955835753323</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2670401414.963993</v>
+        <v>2690883954.047062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1066665849537428</v>
+        <v>0.09841786394611785</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02345327314928902</v>
+        <v>0.02640146510960902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1994591429.476104</v>
+        <v>2705892684.688622</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004967875110934</v>
+        <v>0.09171212833476228</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04340561954955605</v>
+        <v>0.0333285332517357</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3635105205.972732</v>
+        <v>3234005110.824953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1220391128351817</v>
+        <v>0.094197901027018</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05231204183862977</v>
+        <v>0.0356621540481365</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1148771051.022495</v>
+        <v>1133022656.416458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1320465356952484</v>
+        <v>0.1860585809989891</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04272155130461588</v>
+        <v>0.04222719771481913</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2802703100.083621</v>
+        <v>3144053330.723987</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1348062256866907</v>
+        <v>0.09573422042703848</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02751713999117334</v>
+        <v>0.02599679193701985</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>912270835.5895371</v>
+        <v>984624339.1129116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1056461040042114</v>
+        <v>0.1210057211738562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02421482441868163</v>
+        <v>0.0249123490147765</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1035319015.685694</v>
+        <v>1391057793.949681</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1021332837449486</v>
+        <v>0.1099953506022311</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03703733092018689</v>
+        <v>0.03457535352119256</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2934375853.011261</v>
+        <v>3686029901.592844</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1409412707083258</v>
+        <v>0.105630434946771</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01810094076077147</v>
+        <v>0.01646770172759377</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>161</v>
+      </c>
+      <c r="J27" t="n">
+        <v>385</v>
+      </c>
+      <c r="K27" t="n">
+        <v>51.8901809702318</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3132967664.265172</v>
+        <v>3567234073.443121</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1477196937436055</v>
+        <v>0.1121061120429504</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03373700604868305</v>
+        <v>0.03769050715441372</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>90</v>
+      </c>
+      <c r="J28" t="n">
+        <v>386</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4106958367.25003</v>
+        <v>4129351758.105582</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1173056702665917</v>
+        <v>0.1096564163511824</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04449232059474209</v>
+        <v>0.04465723916630662</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>332</v>
+      </c>
+      <c r="J29" t="n">
+        <v>385</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49.68676368006871</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2412330390.905614</v>
+        <v>1792728172.263932</v>
       </c>
       <c r="F30" t="n">
-        <v>0.11829620734962</v>
+        <v>0.1012442210865606</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03551346150803191</v>
+        <v>0.03921060054729996</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1010221947.957681</v>
+        <v>1304074648.313423</v>
       </c>
       <c r="F31" t="n">
-        <v>0.106640979224816</v>
+        <v>0.09020626898127501</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0485520355828931</v>
+        <v>0.04639269717971128</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1533954878.939425</v>
+        <v>1430166041.588269</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09676365795039328</v>
+        <v>0.1043613973571603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03354597009977385</v>
+        <v>0.03177703384654971</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2152886537.379828</v>
+        <v>2646334434.752373</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1595483439915805</v>
+        <v>0.1670973613833469</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05107122430693744</v>
+        <v>0.05647173871932754</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1308492164.11728</v>
+        <v>1420715556.735228</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1206053085143968</v>
+        <v>0.09805112623017044</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02278277824312974</v>
+        <v>0.02746993226320825</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>943757584.9835075</v>
+        <v>1265500955.358099</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1177826458170406</v>
+        <v>0.0741648106851938</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03863085161160898</v>
+        <v>0.03283789843308711</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3180724857.697747</v>
+        <v>2094632397.771806</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1256526945875779</v>
+        <v>0.1153868592162411</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02272563359683698</v>
+        <v>0.02667239190327153</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2174247820.358394</v>
+        <v>2183224636.49748</v>
       </c>
       <c r="F37" t="n">
-        <v>0.107935484111214</v>
+        <v>0.07946846737631273</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0310259317154329</v>
+        <v>0.03385723018436384</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1642850036.250339</v>
+        <v>1348629157.606677</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1057144881783541</v>
+        <v>0.07692658245306216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03980598322455533</v>
+        <v>0.03971099862952893</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1521584079.893009</v>
+        <v>1672506985.797864</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1254749332708951</v>
+        <v>0.1416790415528353</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02195795958432875</v>
+        <v>0.02224741642314888</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1563294628.019767</v>
+        <v>1646039002.298033</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1097153443172868</v>
+        <v>0.1190020143431591</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04573909378394692</v>
+        <v>0.04139980711144658</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2794438332.610918</v>
+        <v>2079062273.434049</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1586526628438433</v>
+        <v>0.1367272116121665</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04106054242548885</v>
+        <v>0.03232298237284048</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3725035350.561109</v>
+        <v>3774428388.558178</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09583220590739784</v>
+        <v>0.09880734831543374</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04245486610980043</v>
+        <v>0.03492220241579768</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>168</v>
+      </c>
+      <c r="J42" t="n">
+        <v>386</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2550673583.156901</v>
+        <v>2170489121.397733</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1814176903354255</v>
+        <v>0.1859461314197932</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02372880680348661</v>
+        <v>0.02334254879492176</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2160423403.17977</v>
+        <v>1951944118.22904</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0684331743278004</v>
+        <v>0.08249333518530574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02887129044475088</v>
+        <v>0.03187151409920727</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2098054024.975652</v>
+        <v>1992050452.431093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.144710568563707</v>
+        <v>0.1506999007495846</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04988613991825702</v>
+        <v>0.04689175718192928</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4030301622.766819</v>
+        <v>5186834612.108063</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1325875929661389</v>
+        <v>0.1432231506767035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04191717636424901</v>
+        <v>0.05232771580592582</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>231</v>
+      </c>
+      <c r="J46" t="n">
+        <v>386</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3810191985.549745</v>
+        <v>4150281305.619821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1596977838160666</v>
+        <v>0.176325108206706</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05712688001134087</v>
+        <v>0.04874075426262436</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>173</v>
+      </c>
+      <c r="J47" t="n">
+        <v>385</v>
+      </c>
+      <c r="K47" t="n">
+        <v>48.83685594074064</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4665936206.530926</v>
+        <v>3064576862.141827</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08528406019806418</v>
+        <v>0.06931979127982368</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02747489332042577</v>
+        <v>0.03737590780316001</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>200</v>
+      </c>
+      <c r="J48" t="n">
+        <v>385</v>
+      </c>
+      <c r="K48" t="n">
+        <v>34.59600222574231</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1875202439.608204</v>
+        <v>1688576079.992719</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1575541465835155</v>
+        <v>0.1466168015893363</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0323931680472474</v>
+        <v>0.04178282497844198</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2714128129.313772</v>
+        <v>3123877066.440595</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190566952500554</v>
+        <v>0.1136548856985837</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03494937786109893</v>
+        <v>0.04416820631891692</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>133</v>
+      </c>
+      <c r="J50" t="n">
+        <v>385</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.20344461667356</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>932287337.4340768</v>
+        <v>1209347565.147607</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1337667462496843</v>
+        <v>0.1558775165590509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05440898618484215</v>
+        <v>0.04069074687474966</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4372095424.452024</v>
+        <v>5053465791.650908</v>
       </c>
       <c r="F52" t="n">
-        <v>0.106206832757627</v>
+        <v>0.08795607798054715</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0471264000159848</v>
+        <v>0.03852654210587227</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>226</v>
+      </c>
+      <c r="J52" t="n">
+        <v>385</v>
+      </c>
+      <c r="K52" t="n">
+        <v>51.25521097000835</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2660935668.107672</v>
+        <v>2337116824.18314</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1449660245404724</v>
+        <v>0.1512622533625229</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03459982467896433</v>
+        <v>0.02251466175458313</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3213866648.085557</v>
+        <v>4935501834.995853</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1370156196968778</v>
+        <v>0.1278870636324141</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03755810808611085</v>
+        <v>0.04680134787744695</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>205</v>
+      </c>
+      <c r="J54" t="n">
+        <v>386</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3010374099.246953</v>
+        <v>3819353819.946912</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2227265058866624</v>
+        <v>0.1801606464053565</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02220408822411554</v>
+        <v>0.02707518504022779</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>187</v>
+      </c>
+      <c r="J55" t="n">
+        <v>386</v>
+      </c>
+      <c r="K55" t="n">
+        <v>54.35591685090462</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1673515313.716065</v>
+        <v>1890599435.076164</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1302051423497196</v>
+        <v>0.1422471672325799</v>
       </c>
       <c r="G56" t="n">
-        <v>0.050675846453883</v>
+        <v>0.05386187609319944</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3432536655.104606</v>
+        <v>4268774407.923518</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1361967685194604</v>
+        <v>0.1846653277945189</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01812474940277324</v>
+        <v>0.02758175359019754</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>164</v>
+      </c>
+      <c r="J57" t="n">
+        <v>385</v>
+      </c>
+      <c r="K57" t="n">
+        <v>52.79479998603645</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1645500462.081723</v>
+        <v>1584466977.647251</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1607565923745662</v>
+        <v>0.1564001144990966</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02498638758877711</v>
+        <v>0.03293863189413235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3882950265.703465</v>
+        <v>4301620322.369646</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07935217162136186</v>
+        <v>0.1111479958870522</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03779885700171256</v>
+        <v>0.04505960881521585</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>187</v>
+      </c>
+      <c r="J59" t="n">
+        <v>386</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3740106310.689402</v>
+        <v>2355031396.012529</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1888899492549898</v>
+        <v>0.1835184727136287</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02202340986964767</v>
+        <v>0.02675278315836572</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2754673363.751726</v>
+        <v>2935965296.23562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1657013870055269</v>
+        <v>0.150032480568994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02302756890157386</v>
+        <v>0.03189694796351578</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1537147725.977576</v>
+        <v>1792679769.001555</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1531803495244022</v>
+        <v>0.1910885329277107</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04808240462463905</v>
+        <v>0.04228217624645376</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4491465258.153748</v>
+        <v>5243621681.562469</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09100295650488797</v>
+        <v>0.07313739663631767</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03251424561687794</v>
+        <v>0.04527431799206824</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>191</v>
+      </c>
+      <c r="J63" t="n">
+        <v>386</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4256587313.56078</v>
+        <v>4129140629.770777</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1192893916533424</v>
+        <v>0.177326678221196</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03101142087243914</v>
+        <v>0.03142817210670906</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>191</v>
+      </c>
+      <c r="J64" t="n">
+        <v>386</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4512420585.663139</v>
+        <v>4807665873.405877</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1696524768822172</v>
+        <v>0.1420302597944536</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02256061325461474</v>
+        <v>0.02262337758306032</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>288</v>
+      </c>
+      <c r="J65" t="n">
+        <v>386</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2763,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3971069359.497192</v>
+        <v>3635152314.257851</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1567018870181024</v>
+        <v>0.1463617994069013</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04651514028997766</v>
+        <v>0.04882580348217721</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>191</v>
+      </c>
+      <c r="J66" t="n">
+        <v>385</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.19368580826831</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3016741369.971581</v>
+        <v>2438499212.513126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08472301283447288</v>
+        <v>0.07799227766864661</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04248475007301025</v>
+        <v>0.04023758876542047</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4077740768.389945</v>
+        <v>5277782086.936934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417455921422465</v>
+        <v>0.1497243376362142</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05078018931438604</v>
+        <v>0.04105441466457369</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>210</v>
+      </c>
+      <c r="J68" t="n">
+        <v>385</v>
+      </c>
+      <c r="K68" t="n">
+        <v>51.44425556173223</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1992591747.106833</v>
+        <v>2170679864.064389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1119053743487643</v>
+        <v>0.131874423862928</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04067212103977893</v>
+        <v>0.05992766244629576</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2528203714.536546</v>
+        <v>3057038977.792425</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07963125470582187</v>
+        <v>0.0991575144192552</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03995992600150327</v>
+        <v>0.0495883589079652</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3851812339.446999</v>
+        <v>4322976245.987935</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1628373981450979</v>
+        <v>0.1574844916024105</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02238751019760741</v>
+        <v>0.0297332872978434</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>275</v>
+      </c>
+      <c r="J71" t="n">
+        <v>385</v>
+      </c>
+      <c r="K71" t="n">
+        <v>51.42593373599754</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1710176831.422703</v>
+        <v>1454549685.177149</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07602187328295659</v>
+        <v>0.1052700707739038</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03289079275350618</v>
+        <v>0.03878982750580543</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3321053081.85442</v>
+        <v>3225072396.746109</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07083723404175855</v>
+        <v>0.1058248651805878</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04375396482029576</v>
+        <v>0.03973814112234004</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2880644924.794805</v>
+        <v>2871745174.773941</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1673346867596163</v>
+        <v>0.1348731249533277</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0238345986805997</v>
+        <v>0.02301349771568618</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2195025739.137534</v>
+        <v>2190761828.617011</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1298174987210245</v>
+        <v>0.1126575145311107</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02479673831650131</v>
+        <v>0.02754640077353043</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4642846101.35389</v>
+        <v>3682304205.827927</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07665904710501788</v>
+        <v>0.09650893715714759</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02558865406201553</v>
+        <v>0.02652881372936391</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>182</v>
+      </c>
+      <c r="J76" t="n">
+        <v>385</v>
+      </c>
+      <c r="K76" t="n">
+        <v>48.68865835999819</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1996628316.007424</v>
+        <v>2157352498.839916</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1181976406149881</v>
+        <v>0.1153570217138304</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02944799349957724</v>
+        <v>0.02090245918728185</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2976782386.18669</v>
+        <v>3345352654.245569</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1191755080434583</v>
+        <v>0.1332050507956128</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0458578827527821</v>
+        <v>0.04510081396211153</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>192</v>
+      </c>
+      <c r="J78" t="n">
+        <v>386</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1573929176.488796</v>
+        <v>1406515992.885383</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1395943873743874</v>
+        <v>0.146886656489067</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02685438267550772</v>
+        <v>0.02842301889537128</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4218455807.883534</v>
+        <v>4825540484.584394</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08843343103640808</v>
+        <v>0.1055968574200933</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0240687313441224</v>
+        <v>0.03359053280018352</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>188</v>
+      </c>
+      <c r="J80" t="n">
+        <v>386</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5086278783.810132</v>
+        <v>4634180861.249633</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09584263028486746</v>
+        <v>0.09836204903763525</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02004633455955904</v>
+        <v>0.0199942147948934</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>179</v>
+      </c>
+      <c r="J81" t="n">
+        <v>386</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5346836925.835488</v>
+        <v>3977139257.847662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1459069302387276</v>
+        <v>0.1865575310369314</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02880658334860427</v>
+        <v>0.02169258727956082</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>266</v>
+      </c>
+      <c r="J82" t="n">
+        <v>385</v>
+      </c>
+      <c r="K82" t="n">
+        <v>52.29357243335951</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1821270546.636331</v>
+        <v>2035921327.625405</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1014728906589867</v>
+        <v>0.136695606119919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03442501328721167</v>
+        <v>0.03964330734398578</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1767985769.029676</v>
+        <v>2576047449.781075</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1197420960737797</v>
+        <v>0.07278557703908381</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04015445558638528</v>
+        <v>0.0357570159448935</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2972957108.558222</v>
+        <v>2277897732.785788</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1616443538670986</v>
+        <v>0.175978808819329</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05162773185411265</v>
+        <v>0.04854564512951249</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2618287881.059364</v>
+        <v>2718845636.387409</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620264354622524</v>
+        <v>0.1382678353138423</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01948091445041373</v>
+        <v>0.01689065160649314</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1373383636.35498</v>
+        <v>953371537.8416706</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1232629786167648</v>
+        <v>0.1440377076264318</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03677712532807454</v>
+        <v>0.03941347368501624</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3600149269.864413</v>
+        <v>3338645793.883924</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1733599655138552</v>
+        <v>0.1436768911932704</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02720430230253121</v>
+        <v>0.03101702110575578</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3578,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2602861606.329318</v>
+        <v>2574762268.238832</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1467655052310531</v>
+        <v>0.1422381171952784</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02956689168984938</v>
+        <v>0.03768264953202245</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1325948299.118492</v>
+        <v>1922893831.733126</v>
       </c>
       <c r="F90" t="n">
-        <v>0.084386924810956</v>
+        <v>0.1365766324260605</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03561829474920237</v>
+        <v>0.04704828789649979</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1327311790.578062</v>
+        <v>1546119776.335812</v>
       </c>
       <c r="F91" t="n">
-        <v>0.126459624886427</v>
+        <v>0.1839899978688503</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0435962286996418</v>
+        <v>0.05035712461653262</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2225323382.548666</v>
+        <v>2481457550.908279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09423311405085057</v>
+        <v>0.06754781946959888</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03243583781794587</v>
+        <v>0.02992695274523516</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3955627874.53057</v>
+        <v>4086006143.383349</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09359911429034153</v>
+        <v>0.1197224966591299</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04207513524242724</v>
+        <v>0.0520152906150174</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>183</v>
+      </c>
+      <c r="J93" t="n">
+        <v>385</v>
+      </c>
+      <c r="K93" t="n">
+        <v>51.01005026007514</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2392384591.595284</v>
+        <v>1754069434.41608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1067759659092797</v>
+        <v>0.1601381660271939</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02761417702898022</v>
+        <v>0.03750466282183452</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2542580524.772296</v>
+        <v>2477879922.289116</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1131702567462638</v>
+        <v>0.1086032317750469</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04639579989766122</v>
+        <v>0.04780467486797865</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1856351827.519819</v>
+        <v>1509454879.820682</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1114377967800845</v>
+        <v>0.1388206294087417</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03540917540062805</v>
+        <v>0.04254411508003422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3525041612.840579</v>
+        <v>5243263621.156756</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1497335417165788</v>
+        <v>0.1570616902031861</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0275729976841543</v>
+        <v>0.02844507160281684</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>200</v>
+      </c>
+      <c r="J97" t="n">
+        <v>386</v>
+      </c>
+      <c r="K97" t="n">
+        <v>52.93784108961091</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2584445139.3779</v>
+        <v>3395249052.578921</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07912729509410583</v>
+        <v>0.09392195713402597</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02858666519998405</v>
+        <v>0.03003859763835302</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>98</v>
+      </c>
+      <c r="J98" t="n">
+        <v>385</v>
+      </c>
+      <c r="K98" t="n">
+        <v>49.16909712162694</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3928,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3252701162.241358</v>
+        <v>3143132637.740139</v>
       </c>
       <c r="F99" t="n">
-        <v>0.13476072100517</v>
+        <v>0.1285175083370015</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0289744264783928</v>
+        <v>0.0283204107504174</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="n">
+        <v>63.20599625296804</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3915984542.412607</v>
+        <v>4130602753.949503</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1621102977230217</v>
+        <v>0.1304696587234552</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02224727308633169</v>
+        <v>0.0193888400823155</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>177</v>
+      </c>
+      <c r="J100" t="n">
+        <v>386</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2981180678.777775</v>
+        <v>3082593765.241663</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1369744232805856</v>
+        <v>0.1540632607201581</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0498334816081615</v>
+        <v>0.04467275783953135</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
